--- a/test/data/test_96_peptides_ace_configuration.xlsx
+++ b/test/data/test_96_peptides_ace_configuration.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="ACE_config" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Bench_ready" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F289"/>
+  <dimension ref="A1:G289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +465,11 @@
           <t>plate_well_id</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>plate_unique_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -494,6 +500,11 @@
           <t>A1</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>plate1_A1</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -524,6 +535,11 @@
           <t>A1</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>plate1_A1</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -554,6 +570,11 @@
           <t>A1</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>plate1_A1</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -584,6 +605,11 @@
           <t>A2</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>plate1_A2</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -614,6 +640,11 @@
           <t>A2</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>plate1_A2</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -644,6 +675,11 @@
           <t>A2</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>plate1_A2</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -674,6 +710,11 @@
           <t>A3</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>plate1_A3</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -704,6 +745,11 @@
           <t>A3</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>plate1_A3</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -734,6 +780,11 @@
           <t>A3</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>plate1_A3</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -764,6 +815,11 @@
           <t>A4</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>plate1_A4</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -794,6 +850,11 @@
           <t>A4</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>plate1_A4</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -824,6 +885,11 @@
           <t>A4</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>plate1_A4</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -854,6 +920,11 @@
           <t>A5</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>plate1_A5</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -884,6 +955,11 @@
           <t>A5</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>plate1_A5</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -914,6 +990,11 @@
           <t>A5</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>plate1_A5</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -944,6 +1025,11 @@
           <t>A6</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>plate1_A6</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -974,6 +1060,11 @@
           <t>A6</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>plate1_A6</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1004,6 +1095,11 @@
           <t>A6</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>plate1_A6</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1034,6 +1130,11 @@
           <t>A7</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>plate1_A7</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1064,6 +1165,11 @@
           <t>A7</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>plate1_A7</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1094,6 +1200,11 @@
           <t>A7</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>plate1_A7</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1124,6 +1235,11 @@
           <t>A8</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>plate1_A8</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1154,6 +1270,11 @@
           <t>A8</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>plate1_A8</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1184,6 +1305,11 @@
           <t>A8</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>plate1_A8</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1214,6 +1340,11 @@
           <t>A9</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>plate1_A9</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1244,6 +1375,11 @@
           <t>A9</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>plate1_A9</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1274,6 +1410,11 @@
           <t>A9</t>
         </is>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>plate1_A9</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1304,6 +1445,11 @@
           <t>A10</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>plate1_A10</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1334,6 +1480,11 @@
           <t>A10</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>plate1_A10</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1364,6 +1515,11 @@
           <t>A10</t>
         </is>
       </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>plate1_A10</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1394,6 +1550,11 @@
           <t>A11</t>
         </is>
       </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>plate1_A11</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1424,6 +1585,11 @@
           <t>A11</t>
         </is>
       </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>plate1_A11</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1454,6 +1620,11 @@
           <t>A11</t>
         </is>
       </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>plate1_A11</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1484,6 +1655,11 @@
           <t>A12</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>plate1_A12</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1514,6 +1690,11 @@
           <t>A12</t>
         </is>
       </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>plate1_A12</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1544,6 +1725,11 @@
           <t>A12</t>
         </is>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>plate1_A12</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1574,6 +1760,11 @@
           <t>B1</t>
         </is>
       </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>plate1_B1</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1604,6 +1795,11 @@
           <t>B1</t>
         </is>
       </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>plate1_B1</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1634,6 +1830,11 @@
           <t>B1</t>
         </is>
       </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>plate1_B1</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1664,6 +1865,11 @@
           <t>B2</t>
         </is>
       </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>plate1_B2</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1694,6 +1900,11 @@
           <t>B2</t>
         </is>
       </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>plate1_B2</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1724,6 +1935,11 @@
           <t>B2</t>
         </is>
       </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>plate1_B2</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1754,6 +1970,11 @@
           <t>B3</t>
         </is>
       </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>plate1_B3</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1784,6 +2005,11 @@
           <t>B3</t>
         </is>
       </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>plate1_B3</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1814,6 +2040,11 @@
           <t>B3</t>
         </is>
       </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>plate1_B3</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1844,6 +2075,11 @@
           <t>B4</t>
         </is>
       </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>plate1_B4</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1874,6 +2110,11 @@
           <t>B4</t>
         </is>
       </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>plate1_B4</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1904,6 +2145,11 @@
           <t>B4</t>
         </is>
       </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>plate1_B4</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1934,6 +2180,11 @@
           <t>B5</t>
         </is>
       </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>plate1_B5</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1964,6 +2215,11 @@
           <t>B5</t>
         </is>
       </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>plate1_B5</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1994,6 +2250,11 @@
           <t>B5</t>
         </is>
       </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>plate1_B5</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2024,6 +2285,11 @@
           <t>B6</t>
         </is>
       </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>plate1_B6</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2054,6 +2320,11 @@
           <t>B6</t>
         </is>
       </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>plate1_B6</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2084,6 +2355,11 @@
           <t>B6</t>
         </is>
       </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>plate1_B6</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2114,6 +2390,11 @@
           <t>B7</t>
         </is>
       </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>plate1_B7</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2144,6 +2425,11 @@
           <t>B7</t>
         </is>
       </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>plate1_B7</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2174,6 +2460,11 @@
           <t>B7</t>
         </is>
       </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>plate1_B7</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2204,6 +2495,11 @@
           <t>B8</t>
         </is>
       </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>plate1_B8</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2234,6 +2530,11 @@
           <t>B8</t>
         </is>
       </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>plate1_B8</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2264,6 +2565,11 @@
           <t>B8</t>
         </is>
       </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>plate1_B8</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2294,6 +2600,11 @@
           <t>B9</t>
         </is>
       </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>plate1_B9</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2324,6 +2635,11 @@
           <t>B9</t>
         </is>
       </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>plate1_B9</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2354,6 +2670,11 @@
           <t>B9</t>
         </is>
       </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>plate1_B9</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2384,6 +2705,11 @@
           <t>B10</t>
         </is>
       </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>plate1_B10</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2414,6 +2740,11 @@
           <t>B10</t>
         </is>
       </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>plate1_B10</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2444,6 +2775,11 @@
           <t>B10</t>
         </is>
       </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>plate1_B10</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2474,6 +2810,11 @@
           <t>B11</t>
         </is>
       </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>plate1_B11</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2504,6 +2845,11 @@
           <t>B11</t>
         </is>
       </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>plate1_B11</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2534,6 +2880,11 @@
           <t>B11</t>
         </is>
       </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>plate1_B11</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2564,6 +2915,11 @@
           <t>B12</t>
         </is>
       </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>plate1_B12</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2594,6 +2950,11 @@
           <t>B12</t>
         </is>
       </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>plate1_B12</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2624,6 +2985,11 @@
           <t>B12</t>
         </is>
       </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>plate1_B12</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2654,6 +3020,11 @@
           <t>C1</t>
         </is>
       </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>plate1_C1</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2684,6 +3055,11 @@
           <t>C1</t>
         </is>
       </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>plate1_C1</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2714,6 +3090,11 @@
           <t>C1</t>
         </is>
       </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>plate1_C1</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2744,6 +3125,11 @@
           <t>C2</t>
         </is>
       </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>plate1_C2</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2774,6 +3160,11 @@
           <t>C2</t>
         </is>
       </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>plate1_C2</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2804,6 +3195,11 @@
           <t>C2</t>
         </is>
       </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>plate1_C2</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2834,6 +3230,11 @@
           <t>C3</t>
         </is>
       </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>plate1_C3</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2864,6 +3265,11 @@
           <t>C3</t>
         </is>
       </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>plate1_C3</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2894,6 +3300,11 @@
           <t>C3</t>
         </is>
       </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>plate1_C3</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2924,6 +3335,11 @@
           <t>C4</t>
         </is>
       </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>plate1_C4</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2954,6 +3370,11 @@
           <t>C4</t>
         </is>
       </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>plate1_C4</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2984,6 +3405,11 @@
           <t>C4</t>
         </is>
       </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>plate1_C4</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3014,6 +3440,11 @@
           <t>C5</t>
         </is>
       </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>plate1_C5</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3044,6 +3475,11 @@
           <t>C5</t>
         </is>
       </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>plate1_C5</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3074,6 +3510,11 @@
           <t>C5</t>
         </is>
       </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>plate1_C5</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3104,6 +3545,11 @@
           <t>C6</t>
         </is>
       </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>plate1_C6</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3134,6 +3580,11 @@
           <t>C6</t>
         </is>
       </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>plate1_C6</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3164,6 +3615,11 @@
           <t>C6</t>
         </is>
       </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>plate1_C6</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3194,6 +3650,11 @@
           <t>C7</t>
         </is>
       </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>plate1_C7</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3224,6 +3685,11 @@
           <t>C7</t>
         </is>
       </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>plate1_C7</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3254,6 +3720,11 @@
           <t>C7</t>
         </is>
       </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>plate1_C7</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3284,6 +3755,11 @@
           <t>C8</t>
         </is>
       </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>plate1_C8</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3314,6 +3790,11 @@
           <t>C8</t>
         </is>
       </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>plate1_C8</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3344,6 +3825,11 @@
           <t>C8</t>
         </is>
       </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>plate1_C8</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3374,6 +3860,11 @@
           <t>C9</t>
         </is>
       </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>plate1_C9</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3404,6 +3895,11 @@
           <t>C9</t>
         </is>
       </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>plate1_C9</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3434,6 +3930,11 @@
           <t>C9</t>
         </is>
       </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>plate1_C9</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3464,6 +3965,11 @@
           <t>C10</t>
         </is>
       </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>plate1_C10</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3494,6 +4000,11 @@
           <t>C10</t>
         </is>
       </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>plate1_C10</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3524,6 +4035,11 @@
           <t>C10</t>
         </is>
       </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>plate1_C10</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3554,6 +4070,11 @@
           <t>C11</t>
         </is>
       </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>plate1_C11</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3584,6 +4105,11 @@
           <t>C11</t>
         </is>
       </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>plate1_C11</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3614,6 +4140,11 @@
           <t>C11</t>
         </is>
       </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>plate1_C11</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3644,6 +4175,11 @@
           <t>C12</t>
         </is>
       </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>plate1_C12</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3674,6 +4210,11 @@
           <t>C12</t>
         </is>
       </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>plate1_C12</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3704,6 +4245,11 @@
           <t>C12</t>
         </is>
       </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>plate1_C12</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3734,6 +4280,11 @@
           <t>D1</t>
         </is>
       </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>plate1_D1</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3764,6 +4315,11 @@
           <t>D1</t>
         </is>
       </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>plate1_D1</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3794,6 +4350,11 @@
           <t>D1</t>
         </is>
       </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>plate1_D1</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3824,6 +4385,11 @@
           <t>D2</t>
         </is>
       </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>plate1_D2</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3854,6 +4420,11 @@
           <t>D2</t>
         </is>
       </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>plate1_D2</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3884,6 +4455,11 @@
           <t>D2</t>
         </is>
       </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>plate1_D2</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3914,6 +4490,11 @@
           <t>D3</t>
         </is>
       </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>plate1_D3</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3944,6 +4525,11 @@
           <t>D3</t>
         </is>
       </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>plate1_D3</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3974,6 +4560,11 @@
           <t>D3</t>
         </is>
       </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>plate1_D3</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -4004,6 +4595,11 @@
           <t>D4</t>
         </is>
       </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>plate1_D4</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -4034,6 +4630,11 @@
           <t>D4</t>
         </is>
       </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>plate1_D4</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -4064,6 +4665,11 @@
           <t>D4</t>
         </is>
       </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>plate1_D4</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -4094,6 +4700,11 @@
           <t>D5</t>
         </is>
       </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>plate1_D5</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -4124,6 +4735,11 @@
           <t>D5</t>
         </is>
       </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>plate1_D5</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -4154,6 +4770,11 @@
           <t>D5</t>
         </is>
       </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>plate1_D5</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -4184,6 +4805,11 @@
           <t>D6</t>
         </is>
       </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>plate1_D6</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -4214,6 +4840,11 @@
           <t>D6</t>
         </is>
       </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>plate1_D6</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -4244,6 +4875,11 @@
           <t>D6</t>
         </is>
       </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>plate1_D6</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -4274,6 +4910,11 @@
           <t>D7</t>
         </is>
       </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>plate1_D7</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -4304,6 +4945,11 @@
           <t>D7</t>
         </is>
       </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>plate1_D7</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4334,6 +4980,11 @@
           <t>D7</t>
         </is>
       </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>plate1_D7</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4364,6 +5015,11 @@
           <t>D8</t>
         </is>
       </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>plate1_D8</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4394,6 +5050,11 @@
           <t>D8</t>
         </is>
       </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>plate1_D8</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4424,6 +5085,11 @@
           <t>D8</t>
         </is>
       </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>plate1_D8</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4454,6 +5120,11 @@
           <t>D9</t>
         </is>
       </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>plate1_D9</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4484,6 +5155,11 @@
           <t>D9</t>
         </is>
       </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>plate1_D9</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -4514,6 +5190,11 @@
           <t>D9</t>
         </is>
       </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>plate1_D9</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4544,6 +5225,11 @@
           <t>D10</t>
         </is>
       </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>plate1_D10</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4574,6 +5260,11 @@
           <t>D10</t>
         </is>
       </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>plate1_D10</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4604,6 +5295,11 @@
           <t>D10</t>
         </is>
       </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>plate1_D10</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4634,6 +5330,11 @@
           <t>D11</t>
         </is>
       </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>plate1_D11</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4664,6 +5365,11 @@
           <t>D11</t>
         </is>
       </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>plate1_D11</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4694,6 +5400,11 @@
           <t>D11</t>
         </is>
       </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>plate1_D11</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4724,6 +5435,11 @@
           <t>D12</t>
         </is>
       </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>plate1_D12</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4754,6 +5470,11 @@
           <t>D12</t>
         </is>
       </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>plate1_D12</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4784,6 +5505,11 @@
           <t>D12</t>
         </is>
       </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>plate1_D12</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4814,6 +5540,11 @@
           <t>E1</t>
         </is>
       </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>plate1_E1</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -4844,6 +5575,11 @@
           <t>E1</t>
         </is>
       </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>plate1_E1</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -4874,6 +5610,11 @@
           <t>E1</t>
         </is>
       </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>plate1_E1</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4904,6 +5645,11 @@
           <t>E2</t>
         </is>
       </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>plate1_E2</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -4934,6 +5680,11 @@
           <t>E2</t>
         </is>
       </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>plate1_E2</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -4964,6 +5715,11 @@
           <t>E2</t>
         </is>
       </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>plate1_E2</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -4994,6 +5750,11 @@
           <t>E3</t>
         </is>
       </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>plate1_E3</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -5024,6 +5785,11 @@
           <t>E3</t>
         </is>
       </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>plate1_E3</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -5054,6 +5820,11 @@
           <t>E3</t>
         </is>
       </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>plate1_E3</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -5084,6 +5855,11 @@
           <t>E4</t>
         </is>
       </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>plate1_E4</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -5114,6 +5890,11 @@
           <t>E4</t>
         </is>
       </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>plate1_E4</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -5144,6 +5925,11 @@
           <t>E4</t>
         </is>
       </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>plate1_E4</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -5174,6 +5960,11 @@
           <t>E5</t>
         </is>
       </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>plate1_E5</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -5204,6 +5995,11 @@
           <t>E5</t>
         </is>
       </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>plate1_E5</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -5234,6 +6030,11 @@
           <t>E5</t>
         </is>
       </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>plate1_E5</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -5264,6 +6065,11 @@
           <t>E6</t>
         </is>
       </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>plate1_E6</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -5294,6 +6100,11 @@
           <t>E6</t>
         </is>
       </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>plate1_E6</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -5324,6 +6135,11 @@
           <t>E6</t>
         </is>
       </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>plate1_E6</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -5354,6 +6170,11 @@
           <t>E7</t>
         </is>
       </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>plate1_E7</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -5384,6 +6205,11 @@
           <t>E7</t>
         </is>
       </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>plate1_E7</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -5414,6 +6240,11 @@
           <t>E7</t>
         </is>
       </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>plate1_E7</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -5444,6 +6275,11 @@
           <t>E8</t>
         </is>
       </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>plate1_E8</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -5474,6 +6310,11 @@
           <t>E8</t>
         </is>
       </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>plate1_E8</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -5504,6 +6345,11 @@
           <t>E8</t>
         </is>
       </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>plate1_E8</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -5534,6 +6380,11 @@
           <t>E9</t>
         </is>
       </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>plate1_E9</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -5564,6 +6415,11 @@
           <t>E9</t>
         </is>
       </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>plate1_E9</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -5594,6 +6450,11 @@
           <t>E9</t>
         </is>
       </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>plate1_E9</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -5624,6 +6485,11 @@
           <t>E10</t>
         </is>
       </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>plate1_E10</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -5654,6 +6520,11 @@
           <t>E10</t>
         </is>
       </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>plate1_E10</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -5684,6 +6555,11 @@
           <t>E10</t>
         </is>
       </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>plate1_E10</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -5714,6 +6590,11 @@
           <t>E11</t>
         </is>
       </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>plate1_E11</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -5744,6 +6625,11 @@
           <t>E11</t>
         </is>
       </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>plate1_E11</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -5774,6 +6660,11 @@
           <t>E11</t>
         </is>
       </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>plate1_E11</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -5804,6 +6695,11 @@
           <t>E12</t>
         </is>
       </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>plate1_E12</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -5834,6 +6730,11 @@
           <t>E12</t>
         </is>
       </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>plate1_E12</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -5864,6 +6765,11 @@
           <t>E12</t>
         </is>
       </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>plate1_E12</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -5894,6 +6800,11 @@
           <t>F1</t>
         </is>
       </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>plate1_F1</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -5924,6 +6835,11 @@
           <t>F1</t>
         </is>
       </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>plate1_F1</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -5954,6 +6870,11 @@
           <t>F1</t>
         </is>
       </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>plate1_F1</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -5984,6 +6905,11 @@
           <t>F2</t>
         </is>
       </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>plate1_F2</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -6014,6 +6940,11 @@
           <t>F2</t>
         </is>
       </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>plate1_F2</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -6044,6 +6975,11 @@
           <t>F2</t>
         </is>
       </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>plate1_F2</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -6074,6 +7010,11 @@
           <t>F3</t>
         </is>
       </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>plate1_F3</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -6104,6 +7045,11 @@
           <t>F3</t>
         </is>
       </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>plate1_F3</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -6134,6 +7080,11 @@
           <t>F3</t>
         </is>
       </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>plate1_F3</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -6164,6 +7115,11 @@
           <t>F4</t>
         </is>
       </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>plate1_F4</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -6194,6 +7150,11 @@
           <t>F4</t>
         </is>
       </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>plate1_F4</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -6224,6 +7185,11 @@
           <t>F4</t>
         </is>
       </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>plate1_F4</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -6254,6 +7220,11 @@
           <t>F5</t>
         </is>
       </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>plate1_F5</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -6284,6 +7255,11 @@
           <t>F5</t>
         </is>
       </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>plate1_F5</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -6314,6 +7290,11 @@
           <t>F5</t>
         </is>
       </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>plate1_F5</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -6344,6 +7325,11 @@
           <t>F6</t>
         </is>
       </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>plate1_F6</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -6374,6 +7360,11 @@
           <t>F6</t>
         </is>
       </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>plate1_F6</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -6404,6 +7395,11 @@
           <t>F6</t>
         </is>
       </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>plate1_F6</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -6434,6 +7430,11 @@
           <t>F7</t>
         </is>
       </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>plate1_F7</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -6464,6 +7465,11 @@
           <t>F7</t>
         </is>
       </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>plate1_F7</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -6494,6 +7500,11 @@
           <t>F7</t>
         </is>
       </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>plate1_F7</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -6524,6 +7535,11 @@
           <t>F8</t>
         </is>
       </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>plate1_F8</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -6554,6 +7570,11 @@
           <t>F8</t>
         </is>
       </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>plate1_F8</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -6584,6 +7605,11 @@
           <t>F8</t>
         </is>
       </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>plate1_F8</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -6614,6 +7640,11 @@
           <t>F9</t>
         </is>
       </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>plate1_F9</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -6644,6 +7675,11 @@
           <t>F9</t>
         </is>
       </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>plate1_F9</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -6674,6 +7710,11 @@
           <t>F9</t>
         </is>
       </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>plate1_F9</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -6704,6 +7745,11 @@
           <t>F10</t>
         </is>
       </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>plate1_F10</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -6734,6 +7780,11 @@
           <t>F10</t>
         </is>
       </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>plate1_F10</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -6764,6 +7815,11 @@
           <t>F10</t>
         </is>
       </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>plate1_F10</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -6794,6 +7850,11 @@
           <t>F11</t>
         </is>
       </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>plate1_F11</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -6824,6 +7885,11 @@
           <t>F11</t>
         </is>
       </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>plate1_F11</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -6854,6 +7920,11 @@
           <t>F11</t>
         </is>
       </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>plate1_F11</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -6884,6 +7955,11 @@
           <t>F12</t>
         </is>
       </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>plate1_F12</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -6914,6 +7990,11 @@
           <t>F12</t>
         </is>
       </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>plate1_F12</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -6944,6 +8025,11 @@
           <t>F12</t>
         </is>
       </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>plate1_F12</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -6974,6 +8060,11 @@
           <t>G1</t>
         </is>
       </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>plate1_G1</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -7004,6 +8095,11 @@
           <t>G1</t>
         </is>
       </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>plate1_G1</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -7034,6 +8130,11 @@
           <t>G1</t>
         </is>
       </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>plate1_G1</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -7064,6 +8165,11 @@
           <t>G2</t>
         </is>
       </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>plate1_G2</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -7094,6 +8200,11 @@
           <t>G2</t>
         </is>
       </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>plate1_G2</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -7124,6 +8235,11 @@
           <t>G2</t>
         </is>
       </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>plate1_G2</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -7154,6 +8270,11 @@
           <t>G3</t>
         </is>
       </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>plate1_G3</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -7184,6 +8305,11 @@
           <t>G3</t>
         </is>
       </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>plate1_G3</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -7214,6 +8340,11 @@
           <t>G3</t>
         </is>
       </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>plate1_G3</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -7244,6 +8375,11 @@
           <t>G4</t>
         </is>
       </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>plate1_G4</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -7274,6 +8410,11 @@
           <t>G4</t>
         </is>
       </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>plate1_G4</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -7304,6 +8445,11 @@
           <t>G4</t>
         </is>
       </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>plate1_G4</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -7334,6 +8480,11 @@
           <t>G5</t>
         </is>
       </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>plate1_G5</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -7364,6 +8515,11 @@
           <t>G5</t>
         </is>
       </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>plate1_G5</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -7394,6 +8550,11 @@
           <t>G5</t>
         </is>
       </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>plate1_G5</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -7424,6 +8585,11 @@
           <t>G6</t>
         </is>
       </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>plate1_G6</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -7454,6 +8620,11 @@
           <t>G6</t>
         </is>
       </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>plate1_G6</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -7484,6 +8655,11 @@
           <t>G6</t>
         </is>
       </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>plate1_G6</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -7514,6 +8690,11 @@
           <t>G7</t>
         </is>
       </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>plate1_G7</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -7544,6 +8725,11 @@
           <t>G7</t>
         </is>
       </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>plate1_G7</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -7574,6 +8760,11 @@
           <t>G7</t>
         </is>
       </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>plate1_G7</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -7604,6 +8795,11 @@
           <t>G8</t>
         </is>
       </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>plate1_G8</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -7634,6 +8830,11 @@
           <t>G8</t>
         </is>
       </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>plate1_G8</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -7664,6 +8865,11 @@
           <t>G8</t>
         </is>
       </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>plate1_G8</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -7694,6 +8900,11 @@
           <t>G9</t>
         </is>
       </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>plate1_G9</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -7724,6 +8935,11 @@
           <t>G9</t>
         </is>
       </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>plate1_G9</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -7754,6 +8970,11 @@
           <t>G9</t>
         </is>
       </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>plate1_G9</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -7784,6 +9005,11 @@
           <t>G10</t>
         </is>
       </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>plate1_G10</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -7814,6 +9040,11 @@
           <t>G10</t>
         </is>
       </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>plate1_G10</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -7844,6 +9075,11 @@
           <t>G10</t>
         </is>
       </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>plate1_G10</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -7874,6 +9110,11 @@
           <t>G11</t>
         </is>
       </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>plate1_G11</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -7904,6 +9145,11 @@
           <t>G11</t>
         </is>
       </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>plate1_G11</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -7934,6 +9180,11 @@
           <t>G11</t>
         </is>
       </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>plate1_G11</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -7964,6 +9215,11 @@
           <t>G12</t>
         </is>
       </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>plate1_G12</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -7994,6 +9250,11 @@
           <t>G12</t>
         </is>
       </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>plate1_G12</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -8024,6 +9285,11 @@
           <t>G12</t>
         </is>
       </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>plate1_G12</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -8054,6 +9320,11 @@
           <t>H1</t>
         </is>
       </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>plate1_H1</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -8084,6 +9355,11 @@
           <t>H1</t>
         </is>
       </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>plate1_H1</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -8114,6 +9390,11 @@
           <t>H1</t>
         </is>
       </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>plate1_H1</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -8144,6 +9425,11 @@
           <t>H2</t>
         </is>
       </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>plate1_H2</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -8174,6 +9460,11 @@
           <t>H2</t>
         </is>
       </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>plate1_H2</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -8204,6 +9495,11 @@
           <t>H2</t>
         </is>
       </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>plate1_H2</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -8234,6 +9530,11 @@
           <t>H3</t>
         </is>
       </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>plate1_H3</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -8264,6 +9565,11 @@
           <t>H3</t>
         </is>
       </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>plate1_H3</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -8294,6 +9600,11 @@
           <t>H3</t>
         </is>
       </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>plate1_H3</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -8324,6 +9635,11 @@
           <t>H4</t>
         </is>
       </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>plate1_H4</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -8354,6 +9670,11 @@
           <t>H4</t>
         </is>
       </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>plate1_H4</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -8384,6 +9705,11 @@
           <t>H4</t>
         </is>
       </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>plate1_H4</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -8414,6 +9740,11 @@
           <t>H5</t>
         </is>
       </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>plate1_H5</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -8444,6 +9775,11 @@
           <t>H5</t>
         </is>
       </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>plate1_H5</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -8474,6 +9810,11 @@
           <t>H5</t>
         </is>
       </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>plate1_H5</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -8504,6 +9845,11 @@
           <t>H6</t>
         </is>
       </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>plate1_H6</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -8534,6 +9880,11 @@
           <t>H6</t>
         </is>
       </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>plate1_H6</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -8564,6 +9915,11 @@
           <t>H6</t>
         </is>
       </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>plate1_H6</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -8594,6 +9950,11 @@
           <t>H7</t>
         </is>
       </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>plate1_H7</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -8624,6 +9985,11 @@
           <t>H7</t>
         </is>
       </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>plate1_H7</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -8654,6 +10020,11 @@
           <t>H7</t>
         </is>
       </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>plate1_H7</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -8684,6 +10055,11 @@
           <t>H8</t>
         </is>
       </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>plate1_H8</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -8714,6 +10090,11 @@
           <t>H8</t>
         </is>
       </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>plate1_H8</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -8744,6 +10125,11 @@
           <t>H8</t>
         </is>
       </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>plate1_H8</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -8774,6 +10160,11 @@
           <t>H9</t>
         </is>
       </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>plate1_H9</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -8804,6 +10195,11 @@
           <t>H9</t>
         </is>
       </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>plate1_H9</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -8834,6 +10230,11 @@
           <t>H9</t>
         </is>
       </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>plate1_H9</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -8864,6 +10265,11 @@
           <t>H10</t>
         </is>
       </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>plate1_H10</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -8894,6 +10300,11 @@
           <t>H10</t>
         </is>
       </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>plate1_H10</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -8924,6 +10335,11 @@
           <t>H10</t>
         </is>
       </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>plate1_H10</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -8954,6 +10370,11 @@
           <t>H11</t>
         </is>
       </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>plate1_H11</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -8984,6 +10405,11 @@
           <t>H11</t>
         </is>
       </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>plate1_H11</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -9014,6 +10440,11 @@
           <t>H11</t>
         </is>
       </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>plate1_H11</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -9044,6 +10475,11 @@
           <t>H12</t>
         </is>
       </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>plate1_H12</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -9074,6 +10510,11 @@
           <t>H12</t>
         </is>
       </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>plate1_H12</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -9102,6 +10543,1679 @@
       <c r="F289" t="inlineStr">
         <is>
           <t>H12</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>plate1_H12</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C97"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>peptide_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>sequence</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>plate_unique_ids</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>peptide_1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>YADVFHLYL</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>plate1_A1,plate1_F4,plate1_H12</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>peptide_2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ALSGVFCGV</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>plate1_C8,plate1_C9,plate1_F5</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>peptide_3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SMWSFNPET</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>plate1_A1,plate1_C10,plate1_F5</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>peptide_4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ALASCMGLI</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>plate1_A1,plate1_C11,plate1_F6</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>peptide_5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>NLSALGIFST</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>plate1_A2,plate1_C9,plate1_F7</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>peptide_6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HLRMAGHSL</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>plate1_A3,plate1_C9,plate1_H12</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>peptide_7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>STDTVVEHV</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>plate1_A2,plate1_C12,plate1_F5</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>peptide_8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CYTWNQMNL</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>plate1_A4,plate1_C10,plate1_F6</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>peptide_9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>WLPTGTLLV</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>plate1_A2,plate1_C11,plate1_F8</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>peptide_10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>KVLEYVIKV</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>plate1_A4,plate1_C12,plate1_F8</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>peptide_11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>LMGHFAWWT</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>plate1_A3,plate1_C11,plate1_F7</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>peptide_12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ALSKGVHFV</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>plate1_A7,plate1_C10,plate1_F7</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>peptide_13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>QLVHFVRDFAQL</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>plate1_A3,plate1_C12,plate1_F6</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>peptide_14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>FLPFAMGII</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>plate1_A6,plate1_D1,plate1_F8</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>peptide_15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MDFARVHFISALHGSG</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>plate1_A4,plate1_D1,plate1_F11</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>peptide_16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>FGDHPGHSY</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>plate1_A8,plate1_D1,plate1_F10</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>peptide_17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MLFSHGLVK</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>plate1_A5,plate1_D2,plate1_F10</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>peptide_18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>LLHGFSFYL</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>plate1_A7,plate1_D2,plate1_F9</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>peptide_19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>IVDTVSALV</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>plate1_A5,plate1_D10,plate1_F9</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>peptide_20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>AVGSYVYSV</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>plate1_A5,plate1_D4,plate1_F11</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>peptide_21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>FGDDTVIEV</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>plate1_A6,plate1_D5,plate1_F9</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>peptide_22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>KLYGLDWAEL</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>plate1_A6,plate1_D2,plate1_G1</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>peptide_23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>SGWGDPHYITFDGTYYTFLD</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>plate1_A9,plate1_D3,plate1_F10</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>peptide_24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>FLKKDAPYI</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>plate1_A7,plate1_D3,plate1_F11</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>peptide_25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>RLITGRLQSL</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>plate1_A8,plate1_D3,plate1_G2</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>peptide_26</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>FIASFRLFA</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>plate1_A8,plate1_D4,plate1_G4</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>peptide_27</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RNTFRHSVVVPCE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>plate1_A12,plate1_D4,plate1_G1</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>peptide_28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>LAMPFATPM</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>plate1_B4,plate1_D6,plate1_F12</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>peptide_29</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>RSDTRYVLM</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>plate1_A9,plate1_D5,plate1_G2</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>peptide_30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>AYAQKIFKI</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>plate1_B2,plate1_D6,plate1_G1</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>peptide_31</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>FPFTSFGPL</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>plate1_A10,plate1_D5,plate1_G3</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>peptide_32</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>SVLLFLAFV</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>plate1_A11,plate1_D6,plate1_G5</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>peptide_33</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>VLEEVDWLI</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>plate1_A11,plate1_D8,plate1_G4</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>peptide_34</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ITLATCELY</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>plate1_A9,plate1_D7,plate1_G3</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>peptide_35</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>RIMTWLDMV</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>plate1_A11,plate1_D7,plate1_F12</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>peptide_36</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>MPYIFTLLL</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>plate1_A10,plate1_D9,plate1_F12</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>peptide_37</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>AAFKRSCLK</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>plate1_B2,plate1_D8,plate1_G3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>peptide_38</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>RSRNSSRNL</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>plate1_A10,plate1_D11,plate1_G4</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>peptide_39</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>FLKEKGGL</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>plate1_A12,plate1_D7,plate1_G5</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>peptide_40</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>IPLTTSSKL</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>plate1_B1,plate1_D8,plate1_G2</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>peptide_41</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ALNNIINNA</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>plate1_A12,plate1_D11,plate1_G9</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>peptide_42</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MLSDTLKNL</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>plate1_B1,plate1_D11,plate1_G8</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>peptide_43</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>LITGRLQSL</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>plate1_B6,plate1_D9,plate1_G9</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>peptide_44</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>FLKETGGL</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>plate1_B1,plate1_D9,plate1_G6</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>peptide_45</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>FIASNGVKLV</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>plate1_B2,plate1_D10,plate1_G6</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>peptide_46</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>CVNGSCFTV</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>plate1_B4,plate1_D12,plate1_G5</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>peptide_47</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>APATVCGPK</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>plate1_B4,plate1_E3,plate1_G9</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>peptide_48</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>TLIGDCATV</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>plate1_B3,plate1_D10,plate1_G7</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>peptide_49</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>SLLSVLLSM</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>plate1_B7,plate1_E1,plate1_G6</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>peptide_50</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>LVGLMWLSY</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>plate1_B3,plate1_D12,plate1_H2</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>peptide_51</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>STSAFVETV</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>plate1_B5,plate1_D12,plate1_G8</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>peptide_52</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ELYHYQECV</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>plate1_B3,plate1_E1,plate1_G10</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>peptide_53</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>KPADNSLKI</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>plate1_B6,plate1_E1,plate1_G8</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>peptide_54</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>HLLLVAAGL</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>plate1_B5,plate1_E5,plate1_G10</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>peptide_55</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>KINAWIKVV</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>plate1_B5,plate1_E2,plate1_G12</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>peptide_56</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>SLLMPILTL</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>plate1_B7,plate1_E7,plate1_G7</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>peptide_57</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>RQWGPDPAAV</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>plate1_B6,plate1_E3,plate1_G7</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>peptide_58</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>AMQTMLFTM</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>plate1_B7,plate1_E3,plate1_G10</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>peptide_59</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>YPDKVFRSSV</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>plate1_B8,plate1_E4,plate1_H1</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>peptide_60</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>GTSGSPIIDK</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>plate1_C4,plate1_E2,plate1_G11</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>peptide_61</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>KISEMHPAL</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>plate1_B10,plate1_E6,plate1_G12</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>peptide_62</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>YGFQPTNGV</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>plate1_B9,plate1_E7,plate1_H1</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>peptide_63</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>MLIGIPVYV</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>plate1_B8,plate1_E2,plate1_H3</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>peptide_64</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>SLLMWITQCFLPVF</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>plate1_B9,plate1_E4,plate1_G11</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>peptide_65</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>NPVVHFFKNIVTPR</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>plate1_B8,plate1_E5,plate1_G11</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>peptide_66</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>MTEYKLVVVGARGVGKSALTIQLI</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>plate1_B9,plate1_E6,plate1_H2</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>peptide_67</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>SLFNTVATLY</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>plate1_B11,plate1_E5,plate1_H2</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>peptide_68</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>KLSHQLVLL</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>plate1_C1,plate1_E4,plate1_G12</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>peptide_69</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>GDFGLATEKSRWSGS</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>plate1_B10,plate1_E7,plate1_H4</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>peptide_70</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>FLDEFMEGV</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>plate1_B10,plate1_E8,plate1_H5</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>peptide_71</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>FVSEETGTL</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>plate1_B11,plate1_E8,plate1_H1</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>peptide_72</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ISDYDYYRY</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>plate1_B11,plate1_E6,plate1_H3</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>peptide_73</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>WLMWLIINL</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>plate1_C1,plate1_E8,plate1_H3</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>peptide_74</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>AVIKTLQPV</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>plate1_C1,plate1_E10,plate1_H4</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>peptide_75</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>VTDVTQLYL</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>plate1_C4,plate1_E10,plate1_H5</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>peptide_76</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ATDALMTGF</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>plate1_C2,plate1_E9,plate1_H4</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>peptide_77</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>YMHHMELPT</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>plate1_C2,plate1_E10,plate1_H6</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>peptide_78</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>EFFWDANDIY</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>plate1_C2,plate1_E12,plate1_H8</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>peptide_79</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>HSYFTSDYY</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>plate1_C3,plate1_F1,plate1_H5</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>peptide_80</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>TQMNLKYAI</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>plate1_B12,plate1_F1,plate1_H6</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>peptide_81</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>CTDDNALAY</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>plate1_B12,plate1_E12,plate1_H9</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>peptide_82</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>AIILASFSA</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>plate1_C8,plate1_E11,plate1_H6</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>peptide_83</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>LTDEQRAAALEKAAA</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>plate1_C8,plate1_E12,plate1_H7</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>peptide_84</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>PGVLLKEFTVSGNIL</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>plate1_C5,plate1_E9,plate1_H8</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>peptide_85</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>VLCNSQTSL</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>plate1_C7,plate1_E11,plate1_H9</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>peptide_86</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>VVGAVGVGK</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>plate1_B12,plate1_F4,plate1_H7</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>peptide_87</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>LLSVCLGSL</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>plate1_C4,plate1_F3,plate1_H9</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>peptide_88</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>IPLTTAAKL</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>plate1_C3,plate1_E9,plate1_H10</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>peptide_89</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>FVFPLNSII</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>plate1_C3,plate1_E11,plate1_H7</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>peptide_90</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ATSRMLSYY</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>plate1_C5,plate1_F2,plate1_H11</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>peptide_91</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>TTDPSFLGRY</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>plate1_C5,plate1_F3,plate1_H10</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>peptide_92</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>SLFNTIAVL</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>plate1_C7,plate1_F2,plate1_H10</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>peptide_93</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>YVMAYVMAGVGS</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>plate1_C7,plate1_F1,plate1_H11</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>peptide_94</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>GPQQSFPEQEA</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>plate1_C6,plate1_F2,plate1_H12</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>peptide_95</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>KVDPIGHVY</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>plate1_C6,plate1_F4,plate1_H8</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>peptide_96</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>LPKEITVAT</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>plate1_C6,plate1_F3,plate1_H11</t>
         </is>
       </c>
     </row>
